--- a/EU Free Shipping Trails/Shipping_Without_new_conditions.xlsx
+++ b/EU Free Shipping Trails/Shipping_Without_new_conditions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olcay\Desktop\TASKS\TrakRacer\EU Free Shipping Trails\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olcay\Desktop\ALL TASKS\EU Free Shipping Trails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C0BD11-C660-49F9-9FE7-2676EDC9D629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CC6EF4-A95C-423A-BAF9-7D5DED48A03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28260" yWindow="4680" windowWidth="24105" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1992,6 +1992,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2016,7 +2024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2069,14 +2077,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2084,8 +2108,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2391,9 +2417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U621"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L598" sqref="L598"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2417,7 +2443,7 @@
     <col min="18" max="18" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="21" max="21" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -3412,62 +3438,62 @@
         <v>34.296784499999987</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>47579243086169</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5">
         <v>299</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>66</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>99</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>12.5</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>365904</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <v>74</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="5">
         <v>74</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="5">
         <v>57.182663999999981</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="5">
         <v>18</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="5">
         <v>75.182663999999988</v>
       </c>
     </row>
